--- a/biology/Médecine/Jean-Pierre_Coudray/Jean-Pierre_Coudray.xlsx
+++ b/biology/Médecine/Jean-Pierre_Coudray/Jean-Pierre_Coudray.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Pierre Coudray, né en Algérie le 18 mars 1926 et mort à Lambesc le 24 juillet 1989 est un psychiatre français.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après ses études de médecine en France, dans le Paris de l'après-guerre, il retourne en Algérie où il exerce le métier de psychiatre à l'hôpital Mustapha d'Alger. L'indépendance de l'Algérie le ramène en France en 1963. Après trois années d'études à la Sorbonne, il devient maître-assistant en sociologie à la faculté de Montpellier aux côtés de Jean Servier.
 En 1972, il s'installe à Marseille comme psychiatre et devient le médecin de Christian Gabrielle Guez Ricord, poète avec qui il publie en 1984 un livre intitulé Du fou au bateleur.
@@ -544,7 +558,9 @@
           <t>Mise en place d'une politique de santé mentale au Mali</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Avec son homologue malien Baba Koumaré, Coudray élabora un certain nombre de « concepts opératoires » afin de développer une politique de santé mentale dans le pays :
 Distinguer la folie, le « fa », de la maladie mentale en inventant le concept de « jiné bana » : la maladie des esprits ;
@@ -581,9 +597,11 @@
           <t>Postérité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2008, le centre culturel du centre hospitalier Le Vinatier[1] à Bron a présenté une exposition sur « l'expérience malienne » de Coudray. À cette occasion son manuscrit de Coudray a été publié[2]. Il comprend des notes cliniques, des réflexions sur le métier de psychiatre, sur l'Afrique, sur les « jiné », les Djinn, les esprits, etc. Jean-Pierre Coudray prenait aussi des « notes » avec sa caméra VHS, ce qui a permis aux éditeurs de compléter ce récit d'un DVD d'archives, augmenté d'images et d'entretiens tournés au Mali en novembre 2006.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2008, le centre culturel du centre hospitalier Le Vinatier à Bron a présenté une exposition sur « l'expérience malienne » de Coudray. À cette occasion son manuscrit de Coudray a été publié. Il comprend des notes cliniques, des réflexions sur le métier de psychiatre, sur l'Afrique, sur les « jiné », les Djinn, les esprits, etc. Jean-Pierre Coudray prenait aussi des « notes » avec sa caméra VHS, ce qui a permis aux éditeurs de compléter ce récit d'un DVD d'archives, augmenté d'images et d'entretiens tournés au Mali en novembre 2006.
 </t>
         </is>
       </c>
@@ -612,7 +630,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Du fou au bateleur, avec Christian Guez, Paris, Presses de la Renaissance, 1984.
 Freud et les Jiné, un psychiatre au Mali, (avec DVD), Bruxelles, Éditions La Maison d'à côté, 2008 (posthume).</t>
